--- a/EuroSkills/Cisco/1001001001-ios.xlsx
+++ b/EuroSkills/Cisco/1001001001-ios.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Tasks" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="test" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="R1C1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelR1C1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="201">
   <si>
     <t xml:space="preserve">Identifier</t>
   </si>
@@ -132,7 +132,7 @@
   </si>
   <si>
     <t xml:space="preserve">configure terminal
-  interface range {{ range }}
+  interface range {{ interface_range }}
     description NOT_USED
     shutdown</t>
   </si>
@@ -149,7 +149,7 @@
   </si>
   <si>
     <t xml:space="preserve">configure terminal
-  interface range {{ range }}
+  interface range {{ interface_range }}
     speed {{ speed }}
     duplex (( half or full ))</t>
   </si>
@@ -461,6 +461,382 @@
     <t xml:space="preserve">configure terminal
   line vty 0 {{ maximum }}
     ipv6 access-class {{ name }} (( in or out))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure dynamic ARP inspection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHCP snooping is already set up for basic operation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  ip arp inspection vlan {{ vlan_range }}
+  interface range {{ interface_range }}
+    ip arp inspection trust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure all additional validations for dynamic ARP inspection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic ARP inspection is already set up for basic operation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  ip arp inspection validate {{ src-mac }}
+  ip arp inspection validate {{ dst-mac }}
+  ip arp inspection validate {{ ip }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a rate limit for ARP packages on one interface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  interface {{ interface }}
+    ip arp inspection limit rate {{ packets_per_second }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatically recover an error disabled interface after a set period of time if the cause was ARP inspection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  errdisable recovery interval {{ seconds }}
+  errdisable recovery cause arp-inspection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manually set the time and date.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clock set {{ hh }}:{{ mm }}:{{ ss }} {{ month }} {{ day }} {{ year }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure DHCP snooping.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The DHCP option 72 should not be set to increase compatibility.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  ip dhcp snooping
+  ip dhcp snooping vlan {{ vlan_range }}
+  no ip dhcp snooping information option
+  interface range {{ interface_range }}
+    ip dhcp snooping trust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a rate limit for DHCP packages on one interface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  interface {{ interface }}
+    ip dhcp snooping limit rate {{ packets_per_second }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatically recover an error disabled interface after a set period of time if the cause was a DHCP rate limit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  errdisable recovery interval {{ seconds }}
+  errdisable recovery cause dhcp-rate-limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure port security.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  switchport port-security max {{ number }}
+  switchport port-security mac (( sticky or {{ mac }} ))
+  switchport port-security violation (( protect or restrict or shutdown ))
+  switchport port-security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatically recover an error disabled interface after a set period of time if the cause was port security.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  errdisable recovery interval {{ seconds }}
+  errdisable recovery cause psecure-violation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a port channel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The LACP protocol should be used to facilitate this task.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  interface range {{ interface_range }}
+    channel-group {{ number }} mode (( active or passive ))
+  interface port-channel {{ number }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PAGP protocol should be used to facilitate this task.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  interface range {{ interface_range }}
+    channel-group {{ number }} mode (( desirable or auto ))
+  interface port-channel {{ number }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No dynamic protocol should be used to facilitate this task.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  interface range {{ interface_range }}
+    channel-group {{ number }} mode on
+  interface port-channel {{ number }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure port channel load balancing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The port channel is already set up for basic operation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  port-channel load-balance (( src-mac or dst-mac or src-dst-mac or src-ip or dst-ip or src-dst-ip ))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure which spanning tree mode to use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  spanning-tree mode (( pvst or rapid-pvst or mst ))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure the spanning tree priority.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spanning tree is already set up for basic operation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  spanning-tree vlan {{ number }} priority {{ number }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure the spanning tree port priority of one interface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  interface {{ interface }}
+    spanning-tree vlan {{ number }} port-priority {{ number }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable spanning tree BPDU guard on all portfast edge interfaces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+    spanning-tree portfast edge bpduguard default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable spanning tree portfast edge on all access ports.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+    spanning-tree portfast edge default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable spanning tree loop guard on all interfaces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+    spanning-tree loopguard default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable spanning tree BPDU guard on one interface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  interface {{ interface }}
+    spanning-tree bpduguard enable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable spanning tree portfast edge on one interface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  interface {{ interface }}
+    spanning-tree portfast edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable spanning tree loop guard on one interface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  interface {{ interface }}
+    spanning-tree loopguard enable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable spanning tree uplinkfast.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+    spanning-tree uplinkfast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable spanning tree backbonefast.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+    spanning-tree backbonefast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable spanning tree BPDU filter on one interface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  interface {{ interface }}
+    spanning-tree bpdufilter enable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable spanning tree root guard on one interface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  interface {{ interface }}
+    spanning-tree guard root</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatically recover an error disabled interface after a set period of time if the cause was BPDU guard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  errdisable recovery interval {{ seconds }}
+  errdisable recovery cause bpdu-guard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create and name a VLAN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  vlan {{ number }}
+    name {{ name }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a VTPv2 server.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VLANs area already set up for basic operation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  vtp domain {{ name }}
+  vtp version 2
+  vtp mode server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a VTPv2 client.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  vtp domain {{ name }}
+  vtp version 2
+  vtp mode client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure authentication for VTPv2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTPv2 is already set up for basic operation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  vtp password {{ password }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure VTP for automatic pruning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTP is already set up for basic operation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  vtp pruning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a primary VTPv3 server.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  vtp domain {{ name }}
+  vtp version 3
+  vtp mode server
+  end
+vtp primary force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a secondary VTPv3 server.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  vtp domain {{ name }}
+  vtp version 3
+  vtp mode server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a VTPv3 client.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  vtp domain {{ name }}
+  vtp version 3
+  vtp mode client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure authentication for VTPv3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTPv3 is already set up for basic operation.
+The password should not be stored as plain text in the VLAN database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  vtp password {{ password }} hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure the OSPFv2 network type of an interface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  interface {{ interface }}
+    ip ospf network {{ 'broadcast' or 'non-broadcast' or 'point-to-point' or 'point-to-multipoint' or 'point-to-multipoint non-broadcast' }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure the OSPFv2 priority of an interface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  interface {{ interface }}
+    ip ospf priority {{ priority }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure OSPFv2 to advertise a default route.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSPFv2 is already set up for basic operation.
+The route should be advertised even if no default route is present in the routing table.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  router ospf {{ number }}
+    default-information originate always</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a trunk port.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No DTP negotiation should take place.
+802.1Q should be used for VLAN encapsulation.
+The allowed VLANs should be set explicitly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  interface {{ interface }}
+    switchport trunk encapsulation dot1q
+    switchport trunk native vlan {{ VLAN }}
+    switchport trunk allowed vlan {{ VLAN }}
+    switchport mode trunk
+    switchport nonegotiate</t>
   </si>
 </sst>
 </file>
@@ -548,7 +924,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -563,6 +939,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -642,10 +1022,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -654,7 +1034,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="90.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="92.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="37.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="72.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="79.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="54.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="34.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="44.27"/>
@@ -755,7 +1135,7 @@
       <c r="J2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="0"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -1259,6 +1639,544 @@
       </c>
       <c r="F38" s="3" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/EuroSkills/Cisco/1001001001-ios.xlsx
+++ b/EuroSkills/Cisco/1001001001-ios.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
   <si>
     <t xml:space="preserve">Identifier</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t xml:space="preserve">Step 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">general</t>
   </si>
   <si>
     <t xml:space="preserve">Configure system basics.</t>
@@ -99,7 +102,7 @@
   <si>
     <t xml:space="preserve">configure  terminal
   banner motd {{ message }}#
-  username {{ name }} privilege (( 0-15 )) algorithm {{ type }} secret {{ password }}
+  username {{ name }} privilege {{ ‘0’ - ‘15’ }} algorithm {{ type }} secret {{ password }}
   enable algorithm {{ type }} secret {{ password }}
   service password-encryption
   hostname {{ name }}
@@ -133,8 +136,11 @@
   <si>
     <t xml:space="preserve">configure terminal
   interface range {{ interface_range }}
-    description NOT_USED
+    description not_used
     shutdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ntp</t>
   </si>
   <si>
     <t xml:space="preserve">Configure a timezone which has daylight saving time.</t>
@@ -151,7 +157,7 @@
     <t xml:space="preserve">configure terminal
   interface range {{ interface_range }}
     speed {{ speed }}
-    duplex (( half or full ))</t>
+    duplex {{ ‘half’ or ‘full’ }}</t>
   </si>
   <si>
     <t xml:space="preserve">Configure a static link speed and duplex mode on a router interface.</t>
@@ -161,7 +167,10 @@
   interface range {{ range }}
   no negotiation auto
   speed {{ speed }}
-  duplex (( half or full ))</t>
+  duplex {{ ‘half’ or ‘full’ }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bgp</t>
   </si>
   <si>
     <t xml:space="preserve">Add a network advertisement to a BGP configuration.</t>
@@ -172,7 +181,7 @@
   </si>
   <si>
     <t xml:space="preserve">configure terminal
-  router bgp {{ AS }}
+  router bgp {{ as }}
     address-family ipv4
       network {{ subnet }} mask {{ mask }}</t>
   </si>
@@ -181,8 +190,8 @@
   </si>
   <si>
     <t xml:space="preserve">configure terminal
-  router bgp {{ AS }}
-    bgp router-id {{ ID }}</t>
+  router bgp {{ as }}
+    bgp router-id {{ id }}</t>
   </si>
   <si>
     <t xml:space="preserve">Configure a basic BGP peering.</t>
@@ -194,11 +203,11 @@
   </si>
   <si>
     <t xml:space="preserve">configure terminal
-  router bgp {{ AS }}
-    neighbor {{ IP }} remote-as {{ AS }}
+  router bgp {{ as }}
+    neighbor {{ ip }} remote-as {{ as }}
     address-family ipv4
-      neighbor {{ IP }} next-hop-self
-      neighbor {{ IP }} activate</t>
+      neighbor {{ ip }} next-hop-self
+      neighbor {{ ip }} activate</t>
   </si>
   <si>
     <t xml:space="preserve">Configure an iBGP peering via loopback intefaces.</t>
@@ -209,35 +218,38 @@
   </si>
   <si>
     <t xml:space="preserve">configure terminal
-  router bgp {{ AS }}
-    neighbor {{ IP }} update-source {{ loopback_interface }}</t>
+  router bgp {{ as }}
+    neighbor {{ ip }} update-source {{ loopback_interface }}</t>
   </si>
   <si>
     <t xml:space="preserve">Configure an eBGP peering via loopback intefaces.</t>
   </si>
   <si>
     <t xml:space="preserve">configure terminal
-  router bgp {{ AS }}
-    neighbor {{ IP }} update-source {{ loopback_interface }}
-    neighbor {{ IP }} ebgp-multihop 2</t>
+  router bgp {{ as }}
+    neighbor {{ ip }} update-source {{ loopback_interface }}
+    neighbor {{ ip }} ebgp-multihop</t>
   </si>
   <si>
     <t xml:space="preserve">Configure a BGP neighbor as a route reflector client.</t>
   </si>
   <si>
     <t xml:space="preserve">configure terminal
-  router bgp {{ AS }}
+  router bgp {{ as }}
     address-family ipv4
-      neighbor {{ IP }} route-reflector-client</t>
+      neighbor {{ ip }} route-reflector-client</t>
   </si>
   <si>
     <t xml:space="preserve">Advertise a default route to a BGP neighbor.</t>
   </si>
   <si>
     <t xml:space="preserve">configure terminal
-  router bgp {{ AS }}
+  router bgp {{ as }}
     address-family ipv4
-      neighbor {{ IP }} default-originate</t>
+      neighbor {{ ip }} default-originate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eigrp</t>
   </si>
   <si>
     <t xml:space="preserve">Add a network advertisement to an EIGRP configuration.</t>
@@ -248,8 +260,8 @@
   <si>
     <t xml:space="preserve">configure terminal
   router eigrp {{ name }}
-    address-family (( ipv4 or ipv6 )) autonomous-system {{ number }}
-      network {{ IP }} {{ wildcard }}</t>
+    address-family {{ 'ipv4' or 'ipv6' }} autonomous-system {{ number }}
+      network {{ ip }} {{ wildcard }}</t>
   </si>
   <si>
     <t xml:space="preserve">Configure a static EIGRP router ID.</t>
@@ -257,8 +269,8 @@
   <si>
     <t xml:space="preserve">configure terminal
   router eigrp {{ name }}
-    address-family (( ipv4 or ipv6 )) autonomous-system {{ number }}
-      eigrp router-id {{ ID }}</t>
+    address-family {{ 'ipv4' or 'ipv6' }} autonomous-system {{ number }}
+      eigrp router-id {{ id }}</t>
   </si>
   <si>
     <t xml:space="preserve">Configure all but one EIGRP interface as passive.</t>
@@ -266,7 +278,7 @@
   <si>
     <t xml:space="preserve">configure terminal
   router eigrp {{ name }}
-    address-family (( ipv4 or ipv6 )) autonomous-system {{ number }}
+    address-family {{ 'ipv4' or 'ipv6' }} autonomous-system {{ number }}
       af-interface default
         passive-interface
       af-interface {{ interface }}
@@ -278,7 +290,7 @@
   <si>
     <t xml:space="preserve">configure terminal
   router eigrp {{ name }}
-    address-family (( ipv4 or ipv6 )) autonomous-system {{ number }}
+    address-family {{ 'ipv4' or 'ipv6' }} autonomous-system {{ number }}
       af-interface {{ interface }}
         no split-horizon</t>
   </si>
@@ -288,7 +300,7 @@
   <si>
     <t xml:space="preserve">configure terminal
   router eigrp {{ number }}
-    eigrp upgrade-cli</t>
+    eigrp upgrade-cli {{ name }}</t>
   </si>
   <si>
     <t xml:space="preserve">Enable IPv4 routing and CEF.</t>
@@ -299,6 +311,9 @@
   ip cef</t>
   </si>
   <si>
+    <t xml:space="preserve">ipv6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enable IPv6 unicast routing and CEF.</t>
   </si>
   <si>
@@ -320,7 +335,7 @@
   <si>
     <t xml:space="preserve">configure terminal
   interface {{ interface }}
-    ip address {{ IP }} {{ mask }}</t>
+    ip address {{ ip }} {{ mask }}</t>
   </si>
   <si>
     <t xml:space="preserve">Configure a static global IPv6 address on an interface.</t>
@@ -328,7 +343,7 @@
   <si>
     <t xml:space="preserve">configure terminal
   interface {{ interface }}
-    ipv6 address {{ IPv6 }}/{{ mask }}</t>
+    ipv6 address {{ ipv6 }}/{{ mask }}</t>
   </si>
   <si>
     <t xml:space="preserve">Configure a dynamic link local IPv6 address on an interface.</t>
@@ -353,7 +368,7 @@
   </si>
   <si>
     <t xml:space="preserve">configure terminal
-  ip route {{ subnet }} {{ mask }} {{ exit_interface }} {{ next_hop }} {{ AD }}</t>
+  ip route {{ subnet }} {{ mask }} {{ exit_interface }} {{ next_hop }} {{ ad }}</t>
   </si>
   <si>
     <t xml:space="preserve">Configure a static IPv4 route that is bound to a track.</t>
@@ -374,7 +389,7 @@
   </si>
   <si>
     <t xml:space="preserve">configure terminal
-  ipv6 route {{ subnet }}/{{ mask }} {{ exit_interface }} {{ next_hop }} {{ AD }}</t>
+  ipv6 route {{ subnet }}/{{ mask }} {{ exit_interface }} {{ next_hop }} {{ ad }}</t>
   </si>
   <si>
     <t xml:space="preserve">Configure a static IPv6 route that is bound to a track.</t>
@@ -382,6 +397,9 @@
   <si>
     <t xml:space="preserve">configure terminal
   ipv6 route {{ subnet }}/{{ mask }} {{ exit_interface }} {{ next_hop }} track {{ number }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mpls</t>
   </si>
   <si>
     <t xml:space="preserve">Configure basic MPLS.</t>
@@ -395,6 +413,9 @@
     mpls ldp autoconfig</t>
   </si>
   <si>
+    <t xml:space="preserve">ospf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Add a network advertisement to an OSPF configuration.</t>
   </si>
   <si>
@@ -408,7 +429,7 @@
   <si>
     <t xml:space="preserve">configure terminal
   router ospf {{ number }}
-    router-id {{ ID }}</t>
+    router-id {{ id }}</t>
   </si>
   <si>
     <t xml:space="preserve">Configure all but one OSPFv2 interface as passive.</t>
@@ -425,7 +446,10 @@
   <si>
     <t xml:space="preserve">configure terminal
   router ospf {{ number }}
-    auto-cost reference-bandwidth {{ Mbps }}</t>
+    auto-cost reference-bandwidth {{ mbps }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acl</t>
   </si>
   <si>
     <t xml:space="preserve">Apply an IPv4 ACL on an interface.</t>
@@ -436,7 +460,7 @@
   <si>
     <t xml:space="preserve">configure terminal
   interface {{ interface }}
-    ip access-group {{ name }} (( in or ))</t>
+    ip access-group {{ name }} {{ ‘in’ or ‘out’ }}</t>
   </si>
   <si>
     <t xml:space="preserve">Apply an IPv4 ACL on all vty lines.</t>
@@ -444,7 +468,10 @@
   <si>
     <t xml:space="preserve">configure terminal
   line vty 0 {{ maximum }}
-    access-class {{ name }} (( in or out))</t>
+    access-class {{ name }} {{ 'in' or 'out' }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ipv6;acl</t>
   </si>
   <si>
     <t xml:space="preserve">Apply an IPv6 ACL on an interface.</t>
@@ -452,7 +479,7 @@
   <si>
     <t xml:space="preserve">configure terminal
   interface {{ interface }}
-    ipv6 traffic-filter {{ name }} (( in or ))</t>
+    ipv6 traffic-filter {{ name }} {{ ‘in or ‘out’ }}</t>
   </si>
   <si>
     <t xml:space="preserve">Apply an IPv6 ACL on all vty lines.</t>
@@ -460,7 +487,10 @@
   <si>
     <t xml:space="preserve">configure terminal
   line vty 0 {{ maximum }}
-    ipv6 access-class {{ name }} (( in or out))</t>
+    ipv6 access-class {{ name }} {{ 'in' or 'out' }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dai</t>
   </si>
   <si>
     <t xml:space="preserve">Configure dynamic ARP inspection.</t>
@@ -482,9 +512,9 @@
   </si>
   <si>
     <t xml:space="preserve">configure terminal
-  ip arp inspection validate {{ src-mac }}
-  ip arp inspection validate {{ dst-mac }}
-  ip arp inspection validate {{ ip }}</t>
+  ip arp inspection validate src-mac
+  ip arp inspection validate dst-mac
+  ip arp inspection validate ip</t>
   </si>
   <si>
     <t xml:space="preserve">Configure a rate limit for ARP packages on one interface.</t>
@@ -507,6 +537,9 @@
   </si>
   <si>
     <t xml:space="preserve">clock set {{ hh }}:{{ mm }}:{{ ss }} {{ month }} {{ day }} {{ year }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dhcp_snooping</t>
   </si>
   <si>
     <t xml:space="preserve">Configure DHCP snooping.</t>
@@ -539,13 +572,16 @@
   errdisable recovery cause dhcp-rate-limit</t>
   </si>
   <si>
+    <t xml:space="preserve">port_security</t>
+  </si>
+  <si>
     <t xml:space="preserve">Configure port security.</t>
   </si>
   <si>
     <t xml:space="preserve">configure terminal
   switchport port-security max {{ number }}
-  switchport port-security mac (( sticky or {{ mac }} ))
-  switchport port-security violation (( protect or restrict or shutdown ))
+  switchport port-security mac {{ ‘sticky’ or mac }}
+  switchport port-security violation {{ ‘protect’ or ‘restrict’ or ‘shutdown’ }}
   switchport port-security</t>
   </si>
   <si>
@@ -557,6 +593,9 @@
   errdisable recovery cause psecure-violation</t>
   </si>
   <si>
+    <t xml:space="preserve">port_channel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Configure a port channel.</t>
   </si>
   <si>
@@ -565,7 +604,7 @@
   <si>
     <t xml:space="preserve">configure terminal
   interface range {{ interface_range }}
-    channel-group {{ number }} mode (( active or passive ))
+    channel-group {{ number }} mode {{ ‘active’ or ‘passive’ }}
   interface port-channel {{ number }}</t>
   </si>
   <si>
@@ -574,7 +613,7 @@
   <si>
     <t xml:space="preserve">configure terminal
   interface range {{ interface_range }}
-    channel-group {{ number }} mode (( desirable or auto ))
+    channel-group {{ number }} mode {{ ‘desirable’ or ‘auto’ }}
   interface port-channel {{ number }}</t>
   </si>
   <si>
@@ -594,14 +633,17 @@
   </si>
   <si>
     <t xml:space="preserve">configure terminal
-  port-channel load-balance (( src-mac or dst-mac or src-dst-mac or src-ip or dst-ip or src-dst-ip ))</t>
+  port-channel load-balance {{ ‘src-mac’ or ‘dst-mac’ or ‘src-dst-mac’ or ‘src-ip’ or ‘dst-ip’ or ‘src-dst-ip’ }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stp</t>
   </si>
   <si>
     <t xml:space="preserve">Configure which spanning tree mode to use.</t>
   </si>
   <si>
     <t xml:space="preserve">configure terminal
-  spanning-tree mode (( pvst or rapid-pvst or mst ))</t>
+  spanning-tree mode {{ ‘pvst’ or ‘rapid-pvst’ or ‘mst’ }}</t>
   </si>
   <si>
     <t xml:space="preserve">Configure the spanning tree priority.</t>
@@ -705,12 +747,18 @@
   errdisable recovery cause bpdu-guard</t>
   </si>
   <si>
+    <t xml:space="preserve">vlan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Create and name a VLAN.</t>
   </si>
   <si>
     <t xml:space="preserve">configure terminal
   vlan {{ number }}
     name {{ name }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vtp</t>
   </si>
   <si>
     <t xml:space="preserve">Configure a VTPv2 server.</t>
@@ -833,10 +881,321 @@
     <t xml:space="preserve">configure terminal
   interface {{ interface }}
     switchport trunk encapsulation dot1q
-    switchport trunk native vlan {{ VLAN }}
-    switchport trunk allowed vlan {{ VLAN }}
+    switchport trunk native vlan {{ vlan }}
+    switchport trunk allowed vlan {{ vlan }}
     switchport mode trunk
     switchport nonegotiate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ipsec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure all required IKEv2 specific configurations for a IKEv2 VPN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No ipsec profile must be configured.
+No crypto map must be configured.
+PSK authentication should be used.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create IKEv2 keyring
+Create IKEv2 proposal
+Create IKEv2 policy
+Create IKEv2 profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  crypto ikev2 keyring {{ name }}
+    peer {{ name }}
+      address {{ peer_ip }}
+      pre-shared-key {{ password }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  crypto ikev2 proposal {{ name }}
+    encryption {{ algorithm }}
+    integrity {{ algorithm }}
+    group{{ number }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  crypto ikev2 policy {{ name }}
+    proposal {{ name }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  crypto ikev2 profile {{ name }}
+    match identity remote address {{ peer_ip }} {{ mask }}
+    authentication local pre-share
+    authentication remote pre-share
+    keyring local {{ name }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure all required IKEv1 specific configurations for a IKEv1 VPN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create isakmp policy
+Configure authentication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  crypto isakmp policy {{ name }}
+    authentication pre-share
+    group {{ number }}
+    encryption {{ algorithm }}
+    hash {{ algorithm }}
+    lifetime {{ seconds }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  crypto isakmp key {{ secret }}  address {{ peer_ip }}
+  crypto isakmp identity address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure an IPsec profile for an IKEv1 connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All prerequisite objects are already created.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  crypto ipsec profile {{ name }}
+    set transform-set {{ name }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a IPsec profile for an IKEv2 connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  crypto ipsec profile {{ name }}
+    set ikev2 profile {{ name }}
+    set transfom-set {{ name }}
+    set pfs group{{ number }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a VTI for Ipsec.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  interface tunnel {{ number }}
+    ip address {{ ip }} {{ mask }}
+    tunnel mode ipsec ipv4
+    tunnel source {{ interface }}
+    tunnel destination {{ ip }}
+    tunnel protection ipsec profile {{ name }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure and apply a crypto map for IKEv2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  crypto map {{ name }} {{ sequence_number }} ipsec-isakmp
+    set peer {{ name }}
+    set ikev2 profile {{ name }}
+    set transfom-set {{ name }}
+    set pfs group{{ number }}
+    match address {{ acl_name}} }}
+  inteface {{ interface }}
+    crypto map {{ name }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure and apply a crypto map for IKEv1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  crypto map {{ name }} {{ sequence_number }} ipsec-isakmp
+    set peer {{ name }}
+    set transfom-set {{ name }}
+    match address {{ acl_name }}
+  inteface {{ interface }}
+    crypto map {{ name }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dmvpn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a DMVPN phase 3 hub interface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  interface tunnel {{ number }}
+    ip address {{ ip }} {{ mask }}
+    ip nhrp authentication {{ password }}
+    ip nhrp network-id {{ number }}
+    ip nhrp map multicast dynamic
+    ip nhrp redirect
+    tunnel source {{ interface }}
+    tunnel mode gre multipoint
+    tunnel key {{ number }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a DMVPN phase 3 spoke interface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  interface tunnnel {{ number }}
+    ip address {{ ip }} {{ mask }}
+    ip nhrp authentication {{ password }}
+    ip nhrp network-id {{ number }}
+    ip nhrp map multicast {{ physical_hub_ip }}
+    ip nhrp map {{ tunnel_hub_ip }} {{ physical_hub_ip }}
+    ip nhrp nhs {{ tunnel_hub_ip }}
+    ip nhrp shortcut
+    tunnel source {{ interface }}
+    tunnel mode gre multipoint
+    tunnel key {{ number }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a DMVPN phase 3 single cloud multi hub secondary hub interface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  interface tunnel {{ number }}
+    ip address {{ ip }} {{ mask }}
+    ip nhrp authentication {{ password }}
+    ip nhrp network-id {{ number }}
+    ip nhrp map multicast dynamic
+    ip nhrp map multicast {{ physical_hub_ip }}
+    ip nhrp map {{ tunnel_hub_ip }} {{ physical_hub_ip }}
+    ip nhrp nhs {{ tunnel_hub_ip }}
+    ip nhrp redirect
+    ip nhrp shortcut
+    tunnel source {{ interface }}
+    tunnel mode gre multipoint
+    tunnel key {{ number }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a DMVPN phase 3 single cloud multi hub spoke interface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  interface tunnnel {{ number }}
+    ip address {{ ip }} {{ mask }}
+    ip nhrp authentication {{ password }}
+    ip nhrp network-id {{ number }}
+    ip nhrp map multicast {{ physical_hub1_ip }}
+    ip nhrp map multicast {{ physical_hub2_ip }}
+    ip nhrp map {{ tunnel_hub1_ip }} {{ physical_hub1_ip }}
+    ip nhrp map {{ tunnel_hub2_ip }} {{ physical_hub2_ip }}
+    ip nhrp nhs {{ tunnel_hub1_ip }}
+    ip nhrp nhs {{ tunnel_hub2_ip }}
+    ip nhrp shortcut
+    tunnel source {{ interface }}
+    tunnel mode gre multipoint
+    tunnel key {{ number }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dmvpn;ipsec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure IPsec protection on a DMVPN interface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The DMVPN interface is already set up for basic operation.
+All prerequisite objects are already created.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  interface tunnel {{ number }}
+    tunnel protection ipsec profile {{ name }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure an IKEv2 keyring specifically for DMVPN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any tunnel destination should be accepted.
+PSK authentication should be used.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  crypto ikev2 keyring {{ name }}
+    peer {{ name }}
+      address 0.0.0.0
+      pre-shared-key {{ password }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure an IKEv2 profile specifically for DMVPN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  crypto ikev2 profile {{ name }}
+    match identity remote any
+    authentication local pre-share
+    authentication remote pre-share
+    keyring local {{ name }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure EIGRP to increase the metric for traffic exiting on one interface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The named configuration style should be used.
+EIGRP is already set up for basic operation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  router eigrp {{ name }}
+    address-family {{ ‘ipv4’ or ‘ipv6’ }} autonomous-system {{ number }}
+      topology base
+        offset-list 0 out {{ number }} {{ interface }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add a network advertisement to a RIP configuration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIP version 2 should be used.
+Network mask information should be transmitted by RIP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  router rip
+    version 2
+    no auto-summary
+    network {{ ip }} {{ mask }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure all but one RIP interface as passive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIP is already configured for basic operation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  router rip
+    passive-interface default
+    no passive-interface {{ interface }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure RIP to advertise a default route.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  router rip
+    default-information originate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure EIGRP to advertise a default route.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The named configuration style should be used.
+EIGRP is already set up for basic operation.
+No static route should have to be present for this configuration to work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  router eigrp {{ name }}
+    address-family {{ ‘ipv4’ or ‘ipv6’ }} autonomous-system {{ number }}
+      af-interface {{ interface }}
+        Summary-address {{ ‘0.0.0.0 0.0.0.0’ or ‘::0/0’ }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure an Ipsec transform-set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  crypto ipsec transform-set {{ name }} {{ encryption-algorithm }} {{ hashing-algorithm }}</t>
   </si>
 </sst>
 </file>
@@ -1022,10 +1381,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T79"/>
+  <dimension ref="A1:T99"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D96" activeCellId="0" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1111,29 +1470,32 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="4"/>
     </row>
@@ -1141,13 +1503,16 @@
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1157,12 +1522,15 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -1171,65 +1539,80 @@
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G9" s="3"/>
     </row>
@@ -1237,29 +1620,35 @@
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1268,15 +1657,18 @@
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1285,15 +1677,18 @@
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C13" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1302,15 +1697,18 @@
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G14" s="3"/>
     </row>
@@ -1318,14 +1716,18 @@
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G15" s="3"/>
     </row>
@@ -1333,15 +1735,18 @@
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G16" s="3"/>
     </row>
@@ -1349,26 +1754,32 @@
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C18" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1382,801 +1793,1331 @@
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C21" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C22" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C23" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C24" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C25" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C26" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="B28" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C28" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C29" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="C30" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C31" s="3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="B32" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C32" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="B33" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C33" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="B34" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C34" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="B35" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="C35" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="B36" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="C36" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="B37" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="C37" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="B38" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="C38" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="B39" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="C39" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="B40" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="C40" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="B41" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="C41" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="B42" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="C42" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="B43" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C43" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
+      <c r="B44" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="C44" s="1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
+      <c r="B45" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="C45" s="3" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="B46" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="C46" s="1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
+      <c r="B47" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C47" s="1" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
+      <c r="B48" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C48" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>48</v>
       </c>
+      <c r="B49" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="C49" s="1" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
+      <c r="B50" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="C50" s="1" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
+      <c r="B51" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="C51" s="1" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>51</v>
       </c>
+      <c r="B52" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="C52" s="1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>52</v>
       </c>
+      <c r="B53" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C53" s="1" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>53</v>
       </c>
+      <c r="B54" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C54" s="1" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>54</v>
       </c>
+      <c r="B55" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C55" s="1" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>55</v>
       </c>
+      <c r="B56" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C56" s="1" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>56</v>
       </c>
+      <c r="B57" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C57" s="1" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>57</v>
       </c>
+      <c r="B58" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C58" s="1" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>58</v>
       </c>
+      <c r="B59" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C59" s="1" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>59</v>
       </c>
+      <c r="B60" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C60" s="1" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>60</v>
       </c>
+      <c r="B61" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C61" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="F61" s="3" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>61</v>
       </c>
+      <c r="B62" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C62" s="1" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>62</v>
       </c>
+      <c r="B63" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C63" s="1" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>63</v>
       </c>
+      <c r="B64" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C64" s="1" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>64</v>
       </c>
+      <c r="B65" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C65" s="1" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>65</v>
       </c>
+      <c r="B66" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C66" s="3" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>66</v>
       </c>
+      <c r="B67" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="C67" s="1" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>67</v>
       </c>
+      <c r="B68" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="C68" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>68</v>
       </c>
+      <c r="B69" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="C69" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>69</v>
       </c>
+      <c r="B70" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="C70" s="1" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>70</v>
       </c>
+      <c r="B71" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="C71" s="1" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>71</v>
       </c>
+      <c r="B72" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="C72" s="1" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>72</v>
       </c>
+      <c r="B73" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="C73" s="1" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>73</v>
       </c>
+      <c r="B74" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="C74" s="1" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>74</v>
       </c>
+      <c r="B75" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="C75" s="1" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>75</v>
       </c>
+      <c r="B76" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C76" s="1" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>76</v>
       </c>
+      <c r="B77" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C77" s="1" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>77</v>
       </c>
+      <c r="B78" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C78" s="1" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>78</v>
       </c>
+      <c r="B79" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="C79" s="1" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>200</v>
+        <v>216</v>
+      </c>
+      <c r="I79" s="4"/>
+    </row>
+    <row r="80" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="J80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D99" s="0"/>
+      <c r="F99" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/EuroSkills/Cisco/1001001001-ios.xlsx
+++ b/EuroSkills/Cisco/1001001001-ios.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="342">
   <si>
     <t xml:space="preserve">Identifier</t>
   </si>
@@ -371,6 +371,9 @@
   ip route {{ subnet }} {{ mask }} {{ exit_interface }} {{ next_hop }} {{ ad }}</t>
   </si>
   <si>
+    <t xml:space="preserve">general;track</t>
+  </si>
+  <si>
     <t xml:space="preserve">Configure a static IPv4 route that is bound to a track.</t>
   </si>
   <si>
@@ -390,6 +393,9 @@
   <si>
     <t xml:space="preserve">configure terminal
   ipv6 route {{ subnet }}/{{ mask }} {{ exit_interface }} {{ next_hop }} {{ ad }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ipv6;track</t>
   </si>
   <si>
     <t xml:space="preserve">Configure a static IPv6 route that is bound to a track.</t>
@@ -1191,11 +1197,267 @@
         Summary-address {{ ‘0.0.0.0 0.0.0.0’ or ‘::0/0’ }}</t>
   </si>
   <si>
-    <t xml:space="preserve">Configure an Ipsec transform-set</t>
+    <t xml:space="preserve">Configure an IPsec transform-set.</t>
   </si>
   <si>
     <t xml:space="preserve">configure terminal
   crypto ipsec transform-set {{ name }} {{ encryption-algorithm }} {{ hashing-algorithm }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a device as NTP client and server.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The source interface that should used for NTP requests is to be specified.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  ntp server {{ IP }} source {{ interface }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a device as standalone NTP server.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  ntp master {{ stratum }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure SNMPv3 for read only access with authentication and encryption.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  snmp-server group {{ group_name }} v3 priv
+  snmp-server user {{ user_name }} {{ group_name }} v3 auth {{ hash_algorithm }} {{ password }} priv {{ encryption_algorithm }} {{ key_length}} {{ password }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure contact information for SNMP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  snmp-server contact {{ email }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure location information for SNMP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  snmp-server location {{ location }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a route-map to permit traffic based on an ACL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An ACL has already been created.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  route-map {{ name }} permit {{ number }}
+    match ip address {{ acl }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure inside and outside NAT interfaces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  interface {{ inside_interface }}
+    ip nat inside
+  interface {{ outside_interface }}
+    ip nat outside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure static NAT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inside and outside interfaces have already been defined.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  ip nat inside source static {{ inside_ip }} {{ outside_ip }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure conditional static NAT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A route map has already been created.
+Inside and outside interfaces have already been defined.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  ip nat inside source static {{ inside_ip }} {{ outside_ip }} route-map {{ name }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure conditional dynamic NAT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An ACL has already been created.
+Inside and outside interfaces have already been defined.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  ip nat pool {{ name }} {{ first_ip }} {{ last_ip }} netmask {{ mask }}
+  ip nat inside source list {{ acl_name }} pool {{ name }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure conditional PAT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  ip nat inside source list {{ acl_name }} interface {{ outside_interface }} overload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure port forwarding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  ip nat inside source static {{ protocol }} {{ inside_ip }} {{ inside_port }} {{ outside_ip }} {{ outside_port }} extendable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">track</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure an ICMP reachability track.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No IP SLA object has been created.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  ip sla {{ number }}
+    icmp-echo {{ ip }}
+    frequency {{ seconds }}
+  ip sla schedule {{ number }} start-time now life forever
+  track {{ number }} ip sla {{ number }} reachability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure an interface status track.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  track {{ number }} interface {{ interface }} line-protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsrp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure HSRPv1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An automatic switchover should take place if the original active router comes up again after going down.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  interface {{ interface }}
+    standby {{ number }} ip {{ vip }}
+    standby {{ number }} priority {{ “0” – “255” }}
+    standby {{ number }} preempt delay minimum {{ seconds }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure HSRPv2 for IPv4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  interface {{ interface }}
+    standby version 2
+    standby {{ number }} ip {{ vip }}
+    standby {{ number }} priority {{ “0” – “255” }}
+    standby {{ number }} preempt delay minimum {{ seconds }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsrp;ipv6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure HSRPv2 for IPv6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  interface {{ interface }}
+    standby version 2
+    standby {{ number }} ipv6 auto
+    standby {{ number }} ipv6  {{ vip }}/{{ prefix }}
+    standby {{ number }} priority {{ “0” – “255” }}
+    standby {{ number }} preempt delay minimum {{ seconds }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsrp;track</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure HSRP to decrement its priority when a track goes down.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSRP is already set up for basic operation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  interface {{ interface }}
+    standby {{ number }} track {{ number }} decrement {{ number }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a named standard IPv4 ACL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One ACE should be configured.
+The sequence number should be specified explicitly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  ip access-list standard {{ name }}
+    {{ sequence_number }} {{ “permit” or “deny” }} {{ source_match }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a named extended IPv4 ACL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  ip access-list extended {{ name }}
+    {{ sequence_number }} {{ “permit” or “deny” }} {{ protocol }} {{ source_match }} {{ destination_match }} {{ optional_additional_options }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acl;ipv6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a named IPv6 ACL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  ipv6 access-list {{ name }}
+    {{ sequence_number }} {{ “permit” or “deny” }} {{ protocol }} {{ source_match }} {{ destination_match }} {{ optional_additional_options }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaa;radius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure vty and console login via RADIUS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If no radius server is available the local users should be uses as fallback.
+Users with a privilege level of 15 should automatically land in exec mode after login.
+The source interface that should be used for RADIUS requests is to be specified.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  aaa new-model
+  aaa authentication login default group radius local
+  aaa authorization exec default group radius local
+  aaa authorization console
+  radius server {{ name }}
+   address ipv4 {{ ip }} auth-port {{ port }} acct-port {{ port }}
+   key {{ password }}
+  ip radius source-interface {{ interface }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure the maximum number of failed AAA login attempts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAA is already set up for basic operation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  aaa local authentication attempts max-fail {{ number }}</t>
   </si>
 </sst>
 </file>
@@ -1381,10 +1643,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T99"/>
+  <dimension ref="A1:T122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D96" activeCellId="0" sqref="D96"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E130" activeCellId="0" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1908,16 +2170,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1928,13 +2190,13 @@
         <v>68</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1945,13 +2207,13 @@
         <v>68</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1959,16 +2221,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1976,16 +2238,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1993,13 +2255,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2007,13 +2269,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2021,13 +2283,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2035,13 +2297,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2049,16 +2311,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2066,16 +2328,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="F36" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2083,16 +2345,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2100,16 +2362,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2117,16 +2379,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2134,16 +2396,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2151,16 +2413,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="F41" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2168,13 +2430,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2185,10 +2447,10 @@
         <v>29</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2196,16 +2458,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2213,13 +2475,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2227,13 +2489,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2241,13 +2503,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2255,13 +2517,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2269,16 +2531,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2286,16 +2548,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2303,16 +2565,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2320,16 +2582,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2337,13 +2599,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2351,16 +2613,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2368,16 +2630,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="F55" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2385,16 +2647,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2402,16 +2664,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2419,16 +2681,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2436,16 +2698,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2453,16 +2715,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2470,16 +2732,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2487,16 +2749,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2504,16 +2766,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2521,16 +2783,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2538,16 +2800,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2555,13 +2817,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2569,13 +2831,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2583,16 +2845,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2600,13 +2862,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2614,16 +2876,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2631,16 +2893,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2648,16 +2910,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2665,13 +2927,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2679,13 +2941,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2693,16 +2955,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2710,16 +2972,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="F76" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2727,16 +2989,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="F77" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2744,16 +3006,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2761,16 +3023,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I79" s="4"/>
     </row>
@@ -2779,52 +3041,52 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="J80" s="0"/>
+        <v>226</v>
+      </c>
+      <c r="J80" s="4"/>
     </row>
     <row r="81" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H81" s="3"/>
     </row>
@@ -2833,16 +3095,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2850,16 +3112,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="F83" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2867,16 +3129,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2884,16 +3146,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2901,16 +3163,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2918,13 +3180,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2932,13 +3194,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2946,13 +3208,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2960,13 +3222,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2974,16 +3236,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2991,16 +3253,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3008,16 +3270,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>254</v>
-      </c>
       <c r="F93" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3028,13 +3290,13 @@
         <v>54</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3042,16 +3304,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3059,16 +3321,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3076,16 +3338,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="F97" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3096,13 +3358,13 @@
         <v>54</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3110,14 +3372,418 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D99" s="0"/>
+        <v>275</v>
+      </c>
+      <c r="D99" s="4"/>
       <c r="F99" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D101" s="4"/>
+      <c r="F101" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="105" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E105" s="1"/>
+      <c r="F105" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+    </row>
+    <row r="106" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E111" s="4"/>
+      <c r="F111" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
+      <c r="S111" s="4"/>
+      <c r="T111" s="4"/>
+    </row>
+    <row r="112" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/EuroSkills/Cisco/1001001001-ios.xlsx
+++ b/EuroSkills/Cisco/1001001001-ios.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="344">
   <si>
     <t xml:space="preserve">Identifier</t>
   </si>
@@ -1458,6 +1458,15 @@
   <si>
     <t xml:space="preserve">configure terminal
   aaa local authentication attempts max-fail {{ number }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure automatic configuration backups that take place every the the configuration is written.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  archive
+    path tftp://{{ ip }}/{{ path }}
+    write-memory</t>
   </si>
 </sst>
 </file>
@@ -1643,10 +1652,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T122"/>
+  <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E130" activeCellId="0" sqref="E130"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G123" activeCellId="0" sqref="G123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3784,6 +3793,20 @@
       </c>
       <c r="F122" s="3" t="s">
         <v>341</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/EuroSkills/Cisco/1001001001-ios.xlsx
+++ b/EuroSkills/Cisco/1001001001-ios.xlsx
@@ -1654,8 +1654,8 @@
   </sheetPr>
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G123" activeCellId="0" sqref="G123"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A123" activeCellId="0" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/EuroSkills/Cisco/1001001001-ios.xlsx
+++ b/EuroSkills/Cisco/1001001001-ios.xlsx
@@ -1194,7 +1194,7 @@
   router eigrp {{ name }}
     address-family {{ ‘ipv4’ or ‘ipv6’ }} autonomous-system {{ number }}
       af-interface {{ interface }}
-        Summary-address {{ ‘0.0.0.0 0.0.0.0’ or ‘::0/0’ }}</t>
+        summary-address {{ ‘0.0.0.0 0.0.0.0’ or ‘::0/0’ }}</t>
   </si>
   <si>
     <t xml:space="preserve">Configure an IPsec transform-set.</t>
@@ -1303,7 +1303,7 @@
   ip nat inside source list {{ acl_name }} pool {{ name }}</t>
   </si>
   <si>
-    <t xml:space="preserve">Configure conditional PAT.</t>
+    <t xml:space="preserve">Configure PAT.</t>
   </si>
   <si>
     <t xml:space="preserve">configure terminal
@@ -1654,8 +1654,8 @@
   </sheetPr>
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A123" activeCellId="0" sqref="A123"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F101" activeCellId="0" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/EuroSkills/Cisco/1001001001-ios.xlsx
+++ b/EuroSkills/Cisco/1001001001-ios.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="404">
   <si>
     <t xml:space="preserve">Identifier</t>
   </si>
@@ -655,14 +655,18 @@
     <t xml:space="preserve">Configure the spanning tree priority.</t>
   </si>
   <si>
+    <t xml:space="preserve">Spanning tree is already set up for basic operation.
+PVST is used as the current spanning-tree mode.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  spanning-tree vlan {{ number }} priority {{ number }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure the spanning tree port priority of one interface.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spanning tree is already set up for basic operation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">configure terminal
-  spanning-tree vlan {{ number }} priority {{ number }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configure the spanning tree port priority of one interface.</t>
   </si>
   <si>
     <t xml:space="preserve">configure terminal
@@ -972,11 +976,36 @@
     <t xml:space="preserve">Configure a IPsec profile for an IKEv2 connection</t>
   </si>
   <si>
-    <t xml:space="preserve">configure terminal
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">configure terminal
   crypto ipsec profile {{ name }}
-    set ikev2 profile {{ name }}
-    set transfom-set {{ name }}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    set transfom-set {{ name }}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">    set ikev2 profile {{ name }}
     set pfs group{{ number }}</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Configure a VTI for Ipsec.</t>
@@ -994,27 +1023,94 @@
     <t xml:space="preserve">Configure and apply a crypto map for IKEv2.</t>
   </si>
   <si>
-    <t xml:space="preserve">configure terminal
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">configure terminal
   crypto map {{ name }} {{ sequence_number }} ipsec-isakmp
-    set peer {{ name }}
-    set ikev2 profile {{ name }}
-    set transfom-set {{ name }}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    set transfom-set {{ name }}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">    set ikev2 profile {{ name }}
     set pfs group{{ number }}
-    match address {{ acl_name}} }}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    set peer {{ name }}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">    match address {{ acl_name}}
   inteface {{ interface }}
     crypto map {{ name }}</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Configure and apply a crypto map for IKEv1.</t>
   </si>
   <si>
-    <t xml:space="preserve">configure terminal
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">configure terminal
   crypto map {{ name }} {{ sequence_number }} ipsec-isakmp
-    set peer {{ name }}
-    set transfom-set {{ name }}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    set transfom-set {{ name }}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">    set peer {{ name }}
     match address {{ acl_name }}
   inteface {{ interface }}
     crypto map {{ name }}</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">dmvpn</t>
@@ -1460,13 +1556,265 @@
   aaa local authentication attempts max-fail {{ number }}</t>
   </si>
   <si>
-    <t xml:space="preserve">Configure automatic configuration backups that take place every the the configuration is written.</t>
+    <t xml:space="preserve">Configure automatic configuration backups that take place every the configuration is written.</t>
   </si>
   <si>
     <t xml:space="preserve">configure terminal
   archive
     path tftp://{{ ip }}/{{ path }}
     write-memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ppp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a PPPOE Server.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The server should provide one client with an IP-Address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  bba-group pppoe {{ name }}
+    virtual-template {{ number }}
+  interface {{ phsical_interface }}
+    pppoe enable group {{ name }}
+    no shut
+  ip local pool {{ name }} {{ ip }}
+  interface virtual-template {{ number }}
+    ip addr {{ ip }} {{ mask }}
+    encap ppp
+    peer default ip addr pool {{ name }}
+    no shut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a PPPOE Client.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The client should receive an IP-Address from the server.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  interface {{ phsical_interface }}
+    pppoe-client dial-pool-number {{ number }}
+    no shut
+  interface dialer {{ number }}
+    dial pool {{ number }}
+    encap ppp
+    ip addr negotiate
+    no shut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ppp:chap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure CHAP authentication for a PPPOE connection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPPOE is already set up for basic operation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  username {{ name }} password {{ password }}
+  interface {{ ppp-interface }} {{ number }}
+    ppp authentication chap
+    ppp chap hostname {{ username }}
+    ppp chap password {{ password }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuer a prefix-list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The prefix-list should allow every prefix execpt one specific subnet.
+The deny rule is to specified explizitly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  ip prefix-list {{ name }} seq {{ number }} deny {{ subnet_id }}/{{ mask }}
+  ip prefix-list {{ name }} seq {{ number }} permit 0.0.0.0/0 le 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply a prefix list to one interface in the OSPF process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSPF is already set up for basic operation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  router ospf {{ number }}
+    distribute-list prefix {{ prefix-list_name }} {{ “in“ or “out“ }} {{ interface }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate the cost metric on one OSPF interface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  interface {{ interface }}
+    ip ospf cost {{ number }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply a prefix list for one BGP neighbor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  router bgp {{ as }}
+    address-family {{ 'ipv4' or 'ipv6' }}
+      neighbor {{ ip }} prefix-list {{ name }} {{ “in“ or “out“ }} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow the redistribution of BGP routes into IGPs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  router bgp {{ as }}
+    address-family {{ 'ipv4' or 'ipv6' }}
+      bgp redistribute-internal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bgp;ospf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redistribute OSPF into BGP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  router bgp {{ as }}
+    address-family {{ 'ipv4' or 'ipv6' }}
+      redistribute ospf {{ number }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bgp;eigrp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redistribute EIGRP into BGP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  router bgp {{ as }}
+    address-family {{ 'ipv4' or 'ipv6' }}
+      redistribute eigrp {{ number }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ospf;bgp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redistribute BGP into OSPF.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSPF is already set up for basic operation.
+Redistribution to IGPs is already allowed in BGP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  router ospf {{ number }}
+    redistribute bgp {{ as }} subnets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eigrp;bgp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redistribute BGP into EIGRP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIGRP is already set up for basic operation.
+Redistribution to IGPs is already allowed in BGP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  router eigrp {{ name }}
+    address-family {{ 'ipv4' or 'ipv6' }}
+    topology base      
+      redistribute bgp {{ as }} metric {{ bandwidth }} {{ load }} {{ reliablity }} {{ mtu }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eigrp;ospf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redistribute OSPF into EIGRP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIGRP is already set up for basic operation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  router eigrp {{ name }}
+    address-family {{ 'ipv4' or 'ipv6' }}
+    topology base      
+      redistribute ospf {{ as }} metric {{ bandwidth }} {{ load }} {{ reliablity }} {{ mtu }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ospf;eigrp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redistribute EIGRP into OSPF.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  router ospf {{ number }}
+    redistribute eigrp {{ as }} subnets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a object group containing all private networks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  object-group network {{ name }}
+    10.0.0.0 255.0.0.0
+    172.16.0.0 255.240.0.0
+    192.168.0.0 255.255.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure authentication on a NTP server.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTP is already set up for basic operation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  ntp authentication-key {{ number }} md5 {{ password }}
+  ntp authenticate
+  ntp trusted-key {{ number }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure authentication on a NTP client.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  ntp authentication-key {{ number }} md5 {{ password }}
+  ntp authenticate
+  ntp trusted-key {{ number }}
+  ntp server {{ ip }} key {{ number }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure the default gateway for management traffic on a layer 2 switch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An SVI is already set up for basic operation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  ip default-gateway {{ ip }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a MST instance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The spanning-tree mode is already set to mst.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  spanning-tree mst configuration
+    name {{ name }}
+    revision {{ number }}
+    instance {{ number }} vlan {{ first_vlan }}-{{ last_vlan }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spanning tree is already set up for basic operation.
+MST is used as the current spanning-tree mode.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  spanning-tree mst {{ number }} priority {{ number }}</t>
   </si>
 </sst>
 </file>
@@ -1476,7 +1824,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1504,6 +1852,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1652,10 +2005,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T123"/>
+  <dimension ref="A1:T143"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F101" activeCellId="0" sqref="F101"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E81" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G83" activeCellId="0" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2627,7 +2980,7 @@
       <c r="C54" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="3" t="s">
         <v>159</v>
       </c>
       <c r="F54" s="3" t="s">
@@ -2645,10 +2998,10 @@
         <v>161</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2659,13 +3012,13 @@
         <v>155</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2676,13 +3029,13 @@
         <v>155</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2693,13 +3046,13 @@
         <v>155</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2710,13 +3063,13 @@
         <v>155</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2727,13 +3080,13 @@
         <v>155</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2744,13 +3097,13 @@
         <v>155</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2761,13 +3114,13 @@
         <v>155</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2778,13 +3131,13 @@
         <v>155</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2795,13 +3148,13 @@
         <v>155</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2812,13 +3165,13 @@
         <v>155</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2829,10 +3182,10 @@
         <v>155</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2840,13 +3193,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2854,16 +3207,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2871,13 +3224,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2885,16 +3238,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2902,16 +3255,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2919,16 +3272,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2936,13 +3289,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2950,13 +3303,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2964,16 +3317,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2984,13 +3337,13 @@
         <v>98</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3001,13 +3354,13 @@
         <v>98</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3018,13 +3371,13 @@
         <v>98</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3032,16 +3385,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I79" s="4"/>
     </row>
@@ -3050,28 +3403,28 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J80" s="4"/>
     </row>
@@ -3080,22 +3433,22 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H81" s="3"/>
     </row>
@@ -3104,16 +3457,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3121,16 +3474,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3138,16 +3491,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3155,16 +3508,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3172,16 +3525,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3189,13 +3542,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3203,13 +3556,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3217,13 +3570,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3231,13 +3584,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3245,16 +3598,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3262,16 +3615,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3279,16 +3632,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3299,13 +3652,13 @@
         <v>54</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3313,16 +3666,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3330,16 +3683,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3347,16 +3700,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3367,13 +3720,13 @@
         <v>54</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3381,14 +3734,14 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D99" s="4"/>
       <c r="F99" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3399,13 +3752,13 @@
         <v>29</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3416,11 +3769,11 @@
         <v>29</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D101" s="4"/>
       <c r="F101" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3428,13 +3781,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3442,13 +3795,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3456,13 +3809,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="105" s="4" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3473,14 +3826,14 @@
         <v>20</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -3502,13 +3855,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3516,16 +3869,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3533,16 +3886,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3550,16 +3903,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3567,16 +3920,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3584,17 +3937,17 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
@@ -3616,16 +3969,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3633,13 +3986,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3647,16 +4000,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3664,16 +4017,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3681,16 +4034,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3698,16 +4051,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3718,13 +4071,13 @@
         <v>107</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3735,13 +4088,13 @@
         <v>107</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3749,16 +4102,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3766,16 +4119,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3783,16 +4136,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3803,10 +4156,347 @@
         <v>20</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
